--- a/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
+++ b/Essential_Excel_Functions_for_Data_Analysis_Practise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiya\Desktop\CRP\Excel Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C79D2D-82BE-4288-ADD1-8CBF1D89FCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1C84C7-E308-4680-8812-35A617608E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D4D68308-9443-478A-A1A8-AFEDF7641D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="868">
   <si>
     <t>Essential Excel Functions &amp; Formulas</t>
   </si>
@@ -3620,6 +3620,12 @@
       </rPr>
       <t>.)</t>
     </r>
+  </si>
+  <si>
+    <t>Limitation of VLOOKUP</t>
+  </si>
+  <si>
+    <t>Use of XLOOKUP</t>
   </si>
 </sst>
 </file>
@@ -3918,7 +3924,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4024,12 +4030,13 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4463,8 +4470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920E98F7-A8B9-4AB9-A435-6FE020DD9D8F}">
   <dimension ref="A1:N270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4476,7 +4483,7 @@
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" customWidth="1"/>
     <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
@@ -8990,7 +8997,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9002,7 +9009,7 @@
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -9011,49 +9018,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="52" t="str" cm="1">
+      <c r="A4" s="51" t="str" cm="1">
         <f t="array" ref="A4:M4">staff[#Headers]</f>
         <v>Emp ID</v>
       </c>
-      <c r="B4" s="52" t="str">
+      <c r="B4" s="51" t="str">
         <v>First Name</v>
       </c>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="51" t="str">
         <v>Last Name</v>
       </c>
-      <c r="D4" s="52" t="str">
+      <c r="D4" s="51" t="str">
         <v>Gender</v>
       </c>
-      <c r="E4" s="52" t="str">
+      <c r="E4" s="51" t="str">
         <v>Department</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="51" t="str">
         <v>Salary</v>
       </c>
-      <c r="G4" s="52" t="str">
+      <c r="G4" s="51" t="str">
         <v>Salary Bucket</v>
       </c>
-      <c r="H4" s="52" t="str">
+      <c r="H4" s="51" t="str">
         <v>Start Date</v>
       </c>
-      <c r="I4" s="52" t="str">
+      <c r="I4" s="51" t="str">
         <v>FTE</v>
       </c>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="51" t="str">
         <v>Employee type</v>
       </c>
-      <c r="K4" s="52" t="str">
+      <c r="K4" s="51" t="str">
         <v>Work location</v>
       </c>
-      <c r="L4" s="52" t="str">
+      <c r="L4" s="51" t="str">
         <v>Tenure</v>
       </c>
-      <c r="M4" s="52" t="str">
+      <c r="M4" s="51" t="str">
         <v>Work Type</v>
       </c>
     </row>
@@ -9080,7 +9087,7 @@
       <c r="G5" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="53">
         <v>44025</v>
       </c>
       <c r="I5" s="33">
@@ -9121,7 +9128,7 @@
       <c r="G6" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="53">
         <v>43843</v>
       </c>
       <c r="I6" s="33">
@@ -9162,7 +9169,7 @@
       <c r="G7" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="53">
         <v>43360</v>
       </c>
       <c r="I7" s="33">
@@ -9203,7 +9210,7 @@
       <c r="G8" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="53">
         <v>43360</v>
       </c>
       <c r="I8" s="33">
@@ -9244,7 +9251,7 @@
       <c r="G9" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="53">
         <v>43682</v>
       </c>
       <c r="I9" s="33">
@@ -9285,7 +9292,7 @@
       <c r="G10" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="53">
         <v>44501</v>
       </c>
       <c r="I10" s="33">
@@ -9326,7 +9333,7 @@
       <c r="G11" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="53">
         <v>44235</v>
       </c>
       <c r="I11" s="33">
@@ -9367,7 +9374,7 @@
       <c r="G12" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="53">
         <v>43654</v>
       </c>
       <c r="I12" s="33">
@@ -9408,7 +9415,7 @@
       <c r="G13" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="53">
         <v>44172</v>
       </c>
       <c r="I13" s="33">
@@ -9449,7 +9456,7 @@
       <c r="G14" s="33" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="53">
         <v>43780</v>
       </c>
       <c r="I14" s="33">
@@ -9490,7 +9497,7 @@
       <c r="G15" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="53">
         <v>43465</v>
       </c>
       <c r="I15" s="33">
@@ -9531,7 +9538,7 @@
       <c r="G16" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="53">
         <v>43794</v>
       </c>
       <c r="I16" s="33">
@@ -9572,7 +9579,7 @@
       <c r="G17" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="53">
         <v>43206</v>
       </c>
       <c r="I17" s="33">
@@ -9613,7 +9620,7 @@
       <c r="G18" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="53">
         <v>43787</v>
       </c>
       <c r="I18" s="33">
@@ -9654,7 +9661,7 @@
       <c r="G19" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="53">
         <v>44431</v>
       </c>
       <c r="I19" s="33">
@@ -9695,7 +9702,7 @@
       <c r="G20" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="53">
         <v>44305</v>
       </c>
       <c r="I20" s="33">
@@ -9736,7 +9743,7 @@
       <c r="G21" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="53">
         <v>43710</v>
       </c>
       <c r="I21" s="33">
@@ -9777,7 +9784,7 @@
       <c r="G22" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="53">
         <v>43164</v>
       </c>
       <c r="I22" s="33">
@@ -9818,7 +9825,7 @@
       <c r="G23" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="53">
         <v>43213</v>
       </c>
       <c r="I23" s="33">
@@ -9859,7 +9866,7 @@
       <c r="G24" s="33" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="53">
         <v>43962</v>
       </c>
       <c r="I24" s="33">
@@ -9900,7 +9907,7 @@
       <c r="G25" s="33" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="53">
         <v>43962</v>
       </c>
       <c r="I25" s="33">
@@ -9941,7 +9948,7 @@
       <c r="G26" s="33" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="53">
         <v>43416</v>
       </c>
       <c r="I26" s="33">
@@ -9982,7 +9989,7 @@
       <c r="G27" s="33" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="53">
         <v>43346</v>
       </c>
       <c r="I27" s="33">
@@ -10023,7 +10030,7 @@
       <c r="G28" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="53">
         <v>44193</v>
       </c>
       <c r="I28" s="33">
@@ -10064,7 +10071,7 @@
       <c r="G29" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="53">
         <v>43297</v>
       </c>
       <c r="I29" s="33">
@@ -10105,7 +10112,7 @@
       <c r="G30" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="53">
         <v>43514</v>
       </c>
       <c r="I30" s="33">
@@ -10146,7 +10153,7 @@
       <c r="G31" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="53">
         <v>43514</v>
       </c>
       <c r="I31" s="33">
@@ -10187,7 +10194,7 @@
       <c r="G32" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="53">
         <v>44396</v>
       </c>
       <c r="I32" s="33">
@@ -10228,7 +10235,7 @@
       <c r="G33" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="53">
         <v>44382</v>
       </c>
       <c r="I33" s="33">
@@ -10269,7 +10276,7 @@
       <c r="G34" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="53">
         <v>43899</v>
       </c>
       <c r="I34" s="33">
@@ -10310,7 +10317,7 @@
       <c r="G35" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="53">
         <v>44396</v>
       </c>
       <c r="I35" s="33">
@@ -10351,7 +10358,7 @@
       <c r="G36" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="53">
         <v>43220</v>
       </c>
       <c r="I36" s="33">
@@ -10392,7 +10399,7 @@
       <c r="G37" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="53">
         <v>43822</v>
       </c>
       <c r="I37" s="33">
@@ -10433,7 +10440,7 @@
       <c r="G38" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="53">
         <v>43346</v>
       </c>
       <c r="I38" s="33">
@@ -10474,7 +10481,7 @@
       <c r="G39" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="53">
         <v>43794</v>
       </c>
       <c r="I39" s="33">
@@ -10515,7 +10522,7 @@
       <c r="G40" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="53">
         <v>44249</v>
       </c>
       <c r="I40" s="33">
@@ -10556,7 +10563,7 @@
       <c r="G41" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="53">
         <v>43857</v>
       </c>
       <c r="I41" s="33">
@@ -10597,7 +10604,7 @@
       <c r="G42" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="53">
         <v>44277</v>
       </c>
       <c r="I42" s="33">
@@ -10638,7 +10645,7 @@
       <c r="G43" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="53">
         <v>44277</v>
       </c>
       <c r="I43" s="33">
@@ -10679,7 +10686,7 @@
       <c r="G44" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H44" s="53">
         <v>43192</v>
       </c>
       <c r="I44" s="33">
@@ -10720,7 +10727,7 @@
       <c r="G45" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H45" s="33">
+      <c r="H45" s="53">
         <v>43332</v>
       </c>
       <c r="I45" s="33">
@@ -10761,7 +10768,7 @@
       <c r="G46" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H46" s="33">
+      <c r="H46" s="53">
         <v>43500</v>
       </c>
       <c r="I46" s="33">
@@ -10802,7 +10809,7 @@
       <c r="G47" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H47" s="33">
+      <c r="H47" s="53">
         <v>43500</v>
       </c>
       <c r="I47" s="33">
@@ -10843,7 +10850,7 @@
       <c r="G48" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H48" s="33">
+      <c r="H48" s="53">
         <v>43570</v>
       </c>
       <c r="I48" s="33">
@@ -10884,7 +10891,7 @@
       <c r="G49" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H49" s="33">
+      <c r="H49" s="53">
         <v>43430</v>
       </c>
       <c r="I49" s="33">
@@ -10925,7 +10932,7 @@
       <c r="G50" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H50" s="33">
+      <c r="H50" s="53">
         <v>44067</v>
       </c>
       <c r="I50" s="33">
@@ -10966,7 +10973,7 @@
       <c r="G51" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H51" s="33">
+      <c r="H51" s="53">
         <v>43815</v>
       </c>
       <c r="I51" s="33">
@@ -11007,7 +11014,7 @@
       <c r="G52" s="33" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="H52" s="33">
+      <c r="H52" s="53">
         <v>44487</v>
       </c>
       <c r="I52" s="33">
@@ -11048,7 +11055,7 @@
       <c r="G53" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H53" s="33">
+      <c r="H53" s="53">
         <v>44116</v>
       </c>
       <c r="I53" s="33">
@@ -11089,7 +11096,7 @@
       <c r="G54" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H54" s="33">
+      <c r="H54" s="53">
         <v>44116</v>
       </c>
       <c r="I54" s="33">
@@ -11130,7 +11137,7 @@
       <c r="G55" s="33" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="H55" s="33">
+      <c r="H55" s="53">
         <v>43843</v>
       </c>
       <c r="I55" s="33">
@@ -11171,7 +11178,7 @@
       <c r="G56" s="33" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="H56" s="33">
+      <c r="H56" s="53">
         <v>44473</v>
       </c>
       <c r="I56" s="33">
@@ -11212,7 +11219,7 @@
       <c r="G57" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H57" s="33">
+      <c r="H57" s="53">
         <v>43458</v>
       </c>
       <c r="I57" s="33">
@@ -11253,7 +11260,7 @@
       <c r="G58" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H58" s="33">
+      <c r="H58" s="53">
         <v>43458</v>
       </c>
       <c r="I58" s="33">
@@ -11294,7 +11301,7 @@
       <c r="G59" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H59" s="33">
+      <c r="H59" s="53">
         <v>43164</v>
       </c>
       <c r="I59" s="33">
@@ -11335,7 +11342,7 @@
       <c r="G60" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H60" s="33">
+      <c r="H60" s="53">
         <v>43374</v>
       </c>
       <c r="I60" s="33">
@@ -11376,7 +11383,7 @@
       <c r="G61" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H61" s="33">
+      <c r="H61" s="53">
         <v>43374</v>
       </c>
       <c r="I61" s="33">
@@ -11417,7 +11424,7 @@
       <c r="G62" s="33" t="str">
         <v>Under 50k</v>
       </c>
-      <c r="H62" s="33">
+      <c r="H62" s="53">
         <v>43234</v>
       </c>
       <c r="I62" s="33">
@@ -11458,7 +11465,7 @@
       <c r="G63" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H63" s="53">
         <v>43794</v>
       </c>
       <c r="I63" s="33">
@@ -11499,7 +11506,7 @@
       <c r="G64" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H64" s="33">
+      <c r="H64" s="53">
         <v>43717</v>
       </c>
       <c r="I64" s="33">
@@ -11540,7 +11547,7 @@
       <c r="G65" s="33" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H65" s="33">
+      <c r="H65" s="53">
         <v>43171</v>
       </c>
       <c r="I65" s="33">
@@ -11581,7 +11588,7 @@
       <c r="G66" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H66" s="33">
+      <c r="H66" s="53">
         <v>43311</v>
       </c>
       <c r="I66" s="33">
@@ -11647,10 +11654,10 @@
       <c r="C5" s="49" t="s">
         <v>807</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="54" t="s">
         <v>808</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="49" t="s">
         <v>780</v>
       </c>
@@ -12032,10 +12039,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357CD1E6-E125-45EC-90AD-EB409A7C6C3C}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12186,6 +12193,21 @@
       </c>
       <c r="B18" s="33" t="s">
         <v>857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -22931,7 +22953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D315D8E3-BDFF-4D29-8E4E-4528C7B53938}">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -23281,8 +23303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDB1529-B577-47AD-8EEE-542D4778C9AE}">
   <dimension ref="B1:U129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23294,7 +23316,7 @@
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -23416,7 +23438,7 @@
       <c r="H5" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="53">
         <v>43416</v>
       </c>
       <c r="J5" s="33">
@@ -23476,7 +23498,7 @@
       <c r="H6" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="53">
         <v>43908</v>
       </c>
       <c r="J6" s="33">
@@ -23535,7 +23557,7 @@
       <c r="H7" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="53">
         <v>43759</v>
       </c>
       <c r="J7" s="33">
@@ -23594,7 +23616,7 @@
       <c r="H8" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="53">
         <v>44004</v>
       </c>
       <c r="J8" s="33">
@@ -23653,7 +23675,7 @@
       <c r="H9" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="53">
         <v>44315</v>
       </c>
       <c r="J9" s="33">
@@ -23712,7 +23734,7 @@
       <c r="H10" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="53">
         <v>43874</v>
       </c>
       <c r="J10" s="33">
@@ -23771,7 +23793,7 @@
       <c r="H11" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="53">
         <v>44431</v>
       </c>
       <c r="J11" s="33">
@@ -23830,7 +23852,7 @@
       <c r="H12" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="53">
         <v>44502</v>
       </c>
       <c r="J12" s="33">
@@ -23889,7 +23911,7 @@
       <c r="H13" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="53">
         <v>43914</v>
       </c>
       <c r="J13" s="33">
@@ -23948,7 +23970,7 @@
       <c r="H14" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="53">
         <v>44120</v>
       </c>
       <c r="J14" s="33">
@@ -24007,7 +24029,7 @@
       <c r="H15" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="53">
         <v>44393</v>
       </c>
       <c r="J15" s="33">
@@ -24066,7 +24088,7 @@
       <c r="H16" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="53">
         <v>43255</v>
       </c>
       <c r="J16" s="33">
@@ -24125,7 +24147,7 @@
       <c r="H17" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="53">
         <v>43256</v>
       </c>
       <c r="J17" s="33">
@@ -24184,7 +24206,7 @@
       <c r="H18" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="53">
         <v>43256</v>
       </c>
       <c r="J18" s="33">
@@ -24243,7 +24265,7 @@
       <c r="H19" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="53">
         <v>44193</v>
       </c>
       <c r="J19" s="33">
@@ -24302,7 +24324,7 @@
       <c r="H20" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="53">
         <v>44251</v>
       </c>
       <c r="J20" s="33">
@@ -24361,7 +24383,7 @@
       <c r="H21" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="53">
         <v>43649</v>
       </c>
       <c r="J21" s="33">
@@ -24420,7 +24442,7 @@
       <c r="H22" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="53">
         <v>43521</v>
       </c>
       <c r="J22" s="33">
@@ -24479,7 +24501,7 @@
       <c r="H23" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="53">
         <v>43936</v>
       </c>
       <c r="J23" s="33">
@@ -24538,7 +24560,7 @@
       <c r="H24" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="53">
         <v>43325</v>
       </c>
       <c r="J24" s="33">
@@ -24597,7 +24619,7 @@
       <c r="H25" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="53">
         <v>44396</v>
       </c>
       <c r="J25" s="33">
@@ -24656,7 +24678,7 @@
       <c r="H26" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="53">
         <v>43945</v>
       </c>
       <c r="J26" s="33">
@@ -24715,7 +24737,7 @@
       <c r="H27" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="53">
         <v>43402</v>
       </c>
       <c r="J27" s="33">
@@ -24774,7 +24796,7 @@
       <c r="H28" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="53">
         <v>43902</v>
       </c>
       <c r="J28" s="33">
@@ -24833,7 +24855,7 @@
       <c r="H29" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="53">
         <v>43801</v>
       </c>
       <c r="J29" s="33">
@@ -24892,7 +24914,7 @@
       <c r="H30" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="53">
         <v>44019</v>
       </c>
       <c r="J30" s="33">
@@ -24951,7 +24973,7 @@
       <c r="H31" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="53">
         <v>43857</v>
       </c>
       <c r="J31" s="33">
@@ -25010,7 +25032,7 @@
       <c r="H32" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="53">
         <v>43563</v>
       </c>
       <c r="J32" s="33">
@@ -25069,7 +25091,7 @@
       <c r="H33" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="53">
         <v>43563</v>
       </c>
       <c r="J33" s="33">
@@ -25128,7 +25150,7 @@
       <c r="H34" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="53">
         <v>44067</v>
       </c>
       <c r="J34" s="33">
@@ -25187,7 +25209,7 @@
       <c r="H35" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="53">
         <v>43815</v>
       </c>
       <c r="J35" s="33">
@@ -25246,7 +25268,7 @@
       <c r="H36" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="53">
         <v>43258</v>
       </c>
       <c r="J36" s="33">
@@ -25305,7 +25327,7 @@
       <c r="H37" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="53">
         <v>43902</v>
       </c>
       <c r="J37" s="33">
@@ -25364,7 +25386,7 @@
       <c r="H38" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="53">
         <v>43250</v>
       </c>
       <c r="J38" s="33">
@@ -25423,7 +25445,7 @@
       <c r="H39" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="53">
         <v>43250</v>
       </c>
       <c r="J39" s="33">
@@ -25482,7 +25504,7 @@
       <c r="H40" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="53">
         <v>43291</v>
       </c>
       <c r="J40" s="33">
@@ -25541,7 +25563,7 @@
       <c r="H41" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="53">
         <v>44039</v>
       </c>
       <c r="J41" s="33">
@@ -25600,7 +25622,7 @@
       <c r="H42" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="53">
         <v>44270</v>
       </c>
       <c r="J42" s="33">
@@ -25659,7 +25681,7 @@
       <c r="H43" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="53">
         <v>44270</v>
       </c>
       <c r="J43" s="33">
@@ -25718,7 +25740,7 @@
       <c r="H44" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="53">
         <v>43895</v>
       </c>
       <c r="J44" s="33">
@@ -25777,7 +25799,7 @@
       <c r="H45" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="53">
         <v>43895</v>
       </c>
       <c r="J45" s="33">
@@ -25836,7 +25858,7 @@
       <c r="H46" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="53">
         <v>43949</v>
       </c>
       <c r="J46" s="33">
@@ -25895,7 +25917,7 @@
       <c r="H47" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="53">
         <v>43949</v>
       </c>
       <c r="J47" s="33">
@@ -25954,7 +25976,7 @@
       <c r="H48" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="53">
         <v>44021</v>
       </c>
       <c r="J48" s="33">
@@ -26013,7 +26035,7 @@
       <c r="H49" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="53">
         <v>44021</v>
       </c>
       <c r="J49" s="33">
@@ -26072,7 +26094,7 @@
       <c r="H50" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="53">
         <v>43311</v>
       </c>
       <c r="J50" s="33">
@@ -26131,7 +26153,7 @@
       <c r="H51" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="53">
         <v>43434</v>
       </c>
       <c r="J51" s="33">
@@ -27739,7 +27761,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27751,7 +27773,7 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -27829,7 +27851,7 @@
       <c r="G4" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="53">
         <v>43908</v>
       </c>
       <c r="I4" s="33">
@@ -27870,7 +27892,7 @@
       <c r="G5" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="53">
         <v>44315</v>
       </c>
       <c r="I5" s="33">
@@ -27911,7 +27933,7 @@
       <c r="G6" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="53">
         <v>44393</v>
       </c>
       <c r="I6" s="33">
@@ -27952,7 +27974,7 @@
       <c r="G7" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="53">
         <v>44193</v>
       </c>
       <c r="I7" s="33">
@@ -27993,7 +28015,7 @@
       <c r="G8" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="53">
         <v>44251</v>
       </c>
       <c r="I8" s="33">
@@ -28034,7 +28056,7 @@
       <c r="G9" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="53">
         <v>43936</v>
       </c>
       <c r="I9" s="33">
@@ -28075,7 +28097,7 @@
       <c r="G10" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="53">
         <v>44396</v>
       </c>
       <c r="I10" s="33">
@@ -28116,7 +28138,7 @@
       <c r="G11" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="53">
         <v>43902</v>
       </c>
       <c r="I11" s="33">
@@ -28157,7 +28179,7 @@
       <c r="G12" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="53">
         <v>44019</v>
       </c>
       <c r="I12" s="33">
@@ -28198,7 +28220,7 @@
       <c r="G13" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="53">
         <v>43857</v>
       </c>
       <c r="I13" s="33">
@@ -28239,7 +28261,7 @@
       <c r="G14" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="53">
         <v>44067</v>
       </c>
       <c r="I14" s="33">
@@ -28280,7 +28302,7 @@
       <c r="G15" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="53">
         <v>43949</v>
       </c>
       <c r="I15" s="33">
@@ -28321,7 +28343,7 @@
       <c r="G16" s="33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="53">
         <v>43949</v>
       </c>
       <c r="I16" s="33">
@@ -28350,7 +28372,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28422,6 +28444,7 @@
         <v>120000</v>
       </c>
       <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
       <c r="E6">
         <v>1</v>
       </c>
